--- a/tests/Test cases.xlsx
+++ b/tests/Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE32907-22EB-4B81-A325-C66E5E5EBAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD19276-FC3D-4EA7-933B-4425BA478ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1380" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
   <si>
     <t>Page</t>
   </si>
@@ -354,27 +354,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pass. On some devices it may not work and the reason is unknown.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass. No notice shown though.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass. Sidebars on different pages may shift though.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass. No notice shown and no redirection or refresh though.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass though.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Overall known problems but do not know how to solve: on some devices some sections may show slightly differently (that some parts may shift ) but to other devices it works well, and it can be fixed by zooming out/in.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG Found</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> On some devices it may not work and the reason is unknown.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidebars on different pages may shift though.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No redirection  though.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No redirection though.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No notice shown or no redirection. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -639,38 +663,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -678,56 +687,65 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI47"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1024,7 +1042,7 @@
     <col min="20" max="20" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="24.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:33" ht="24.75" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1052,13 +1070,23 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-    </row>
-    <row r="2" spans="1:29" ht="24" customHeight="1" thickBot="1">
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="Y1" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AE1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+    </row>
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1087,19 +1115,14 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-    </row>
-    <row r="3" spans="1:29" ht="24" thickBot="1">
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="AE2" s="5"/>
+    </row>
+    <row r="3" spans="1:33" ht="24" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -1126,19 +1149,14 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="6"/>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-    </row>
-    <row r="4" spans="1:29" ht="24" thickBot="1">
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="AE3" s="5"/>
+    </row>
+    <row r="4" spans="1:33" ht="24" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -1165,19 +1183,14 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-    </row>
-    <row r="5" spans="1:29" ht="24" thickBot="1">
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" spans="1:33" ht="24" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1206,19 +1219,14 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-    </row>
-    <row r="6" spans="1:29" ht="24" thickBot="1">
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" spans="1:33" ht="24" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="7" t="s">
@@ -1245,19 +1253,14 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-    </row>
-    <row r="7" spans="1:29" ht="24" thickBot="1">
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" spans="1:33" ht="24" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1286,19 +1289,14 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="27" t="s">
+      <c r="U7" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-    </row>
-    <row r="8" spans="1:29" ht="24" customHeight="1" thickBot="1">
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="AE7" s="5"/>
+    </row>
+    <row r="8" spans="1:33" ht="24" customHeight="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1327,19 +1325,22 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-    </row>
-    <row r="9" spans="1:29" ht="24" thickBot="1">
+      <c r="U8" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="Y8" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="5"/>
+    </row>
+    <row r="9" spans="1:33" ht="24" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1368,16 +1369,14 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="27" t="s">
+      <c r="U9" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-    </row>
-    <row r="10" spans="1:29" ht="24" thickBot="1">
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="AE9" s="5"/>
+    </row>
+    <row r="10" spans="1:33" ht="24" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1406,16 +1405,14 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-    </row>
-    <row r="11" spans="1:29" ht="24" thickBot="1">
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="AE10" s="5"/>
+    </row>
+    <row r="11" spans="1:33" ht="24" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1444,16 +1441,14 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="27" t="s">
+      <c r="U11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-    </row>
-    <row r="12" spans="1:29" ht="24" thickBot="1">
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="AE11" s="5"/>
+    </row>
+    <row r="12" spans="1:33" ht="24" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
@@ -1480,16 +1475,14 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="27" t="s">
+      <c r="U12" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-    </row>
-    <row r="13" spans="1:29" ht="24" thickBot="1">
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="AE12" s="5"/>
+    </row>
+    <row r="13" spans="1:33" ht="24" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
@@ -1516,16 +1509,24 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-    </row>
-    <row r="14" spans="1:29" ht="24" thickBot="1">
+      <c r="U13" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="Y13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="24" thickBot="1">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
@@ -1552,16 +1553,24 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-    </row>
-    <row r="15" spans="1:29" ht="24" thickBot="1">
+      <c r="U14" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="Y14" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="24" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1595,8 +1604,9 @@
       </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:29" ht="24" thickBot="1">
+      <c r="AE15" s="5"/>
+    </row>
+    <row r="16" spans="1:33" ht="24" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -1628,8 +1638,9 @@
       </c>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:29" ht="24" thickBot="1">
+      <c r="AE16" s="5"/>
+    </row>
+    <row r="17" spans="1:33" ht="24" customHeight="1" thickBot="1">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
@@ -1656,19 +1667,26 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-    </row>
-    <row r="18" spans="1:29" ht="24" thickBot="1">
+      <c r="U17" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="Y17" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+    </row>
+    <row r="18" spans="1:33" ht="24" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -1697,19 +1715,26 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-    </row>
-    <row r="19" spans="1:29" ht="24" thickBot="1">
+      <c r="U18" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="Y18" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+    </row>
+    <row r="19" spans="1:33" ht="24" thickBot="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="7" t="s">
@@ -1741,8 +1766,9 @@
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:29" ht="24" thickBot="1">
+      <c r="AE19" s="5"/>
+    </row>
+    <row r="20" spans="1:33" ht="24" thickBot="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
@@ -1774,8 +1800,9 @@
       </c>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:29" ht="24" thickBot="1">
+      <c r="AE20" s="5"/>
+    </row>
+    <row r="21" spans="1:33" ht="24" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -1809,8 +1836,9 @@
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:29" ht="24" thickBot="1">
+      <c r="AE21" s="5"/>
+    </row>
+    <row r="22" spans="1:33" ht="24" customHeight="1" thickBot="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="7" t="s">
@@ -1837,17 +1865,24 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-    </row>
-    <row r="23" spans="1:29" ht="24" thickBot="1">
+      <c r="U22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="Y22" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="24" thickBot="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="7" t="s">
@@ -1879,8 +1914,9 @@
       </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="1:29" ht="24" thickBot="1">
+      <c r="AE23" s="5"/>
+    </row>
+    <row r="24" spans="1:33" ht="24" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>65</v>
       </c>
@@ -1914,8 +1950,9 @@
       </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="1:29" ht="24" thickBot="1">
+      <c r="AE24" s="5"/>
+    </row>
+    <row r="25" spans="1:33" ht="24" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="7" t="s">
@@ -1947,8 +1984,9 @@
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-    </row>
-    <row r="26" spans="1:29" ht="24" thickBot="1">
+      <c r="AE25" s="5"/>
+    </row>
+    <row r="26" spans="1:33" ht="24" customHeight="1" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>70</v>
       </c>
@@ -1977,18 +2015,25 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-    </row>
-    <row r="27" spans="1:29" ht="24" thickBot="1">
+      <c r="U26" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="Y26" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF26" s="16"/>
+    </row>
+    <row r="27" spans="1:33" ht="24" thickBot="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="7" t="s">
@@ -2015,18 +2060,14 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-    </row>
-    <row r="28" spans="1:29" ht="24" thickBot="1">
+      <c r="U27" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="AE27" s="5"/>
+    </row>
+    <row r="28" spans="1:33" ht="24" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -2060,8 +2101,9 @@
       </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="1:29" ht="24" thickBot="1">
+      <c r="AE28" s="5"/>
+    </row>
+    <row r="29" spans="1:33" ht="24" customHeight="1" thickBot="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="7" t="s">
@@ -2088,18 +2130,25 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-    </row>
-    <row r="30" spans="1:29" ht="24" thickBot="1">
+      <c r="U29" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="Y29" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF29" s="16"/>
+    </row>
+    <row r="30" spans="1:33" ht="24" customHeight="1" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>81</v>
       </c>
@@ -2128,18 +2177,25 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-    </row>
-    <row r="31" spans="1:29" ht="24" thickBot="1">
+      <c r="U30" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="Y30" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF30" s="16"/>
+    </row>
+    <row r="31" spans="1:33" ht="24" thickBot="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="7" t="s">
@@ -2171,99 +2227,114 @@
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:29" ht="24.75" customHeight="1" thickBot="1">
+      <c r="AE31" s="5"/>
+    </row>
+    <row r="32" spans="1:33" ht="24.75" customHeight="1" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="31" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="36" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-    </row>
-    <row r="33" spans="1:35" ht="24" customHeight="1" thickBot="1">
+      <c r="U32" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="Y32" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF32" s="16"/>
+    </row>
+    <row r="33" spans="1:32" ht="24" customHeight="1" thickBot="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="31" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="29" t="s">
+      <c r="G33" s="30"/>
+      <c r="H33" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-    </row>
-    <row r="34" spans="1:35" ht="23.25" customHeight="1" thickBot="1">
+      <c r="U33" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="Y33" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF33" s="18"/>
+    </row>
+    <row r="34" spans="1:32" ht="23.25" customHeight="1" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="38" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="11" t="s">
         <v>95</v>
       </c>
@@ -2284,31 +2355,26 @@
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="13"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-    </row>
-    <row r="35" spans="1:35" ht="27" customHeight="1" thickBot="1">
+      <c r="AE34" s="5"/>
+    </row>
+    <row r="35" spans="1:32" ht="27" customHeight="1" thickBot="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="38" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="40"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="11" t="s">
         <v>97</v>
       </c>
@@ -2324,25 +2390,26 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-    </row>
-    <row r="36" spans="1:35" ht="27" customHeight="1" thickBot="1">
+      <c r="U35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF35" s="19"/>
+    </row>
+    <row r="36" spans="1:32" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="11"/>
@@ -2363,30 +2430,24 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="7"/>
-    </row>
-    <row r="37" spans="1:35" ht="27.75" customHeight="1" thickBot="1">
+      <c r="U36" s="20"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="7"/>
+    </row>
+    <row r="37" spans="1:32" ht="27.75" customHeight="1" thickBot="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="16" t="s">
-        <v>108</v>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="7"/>
@@ -2401,27 +2462,22 @@
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="7"/>
-    </row>
-    <row r="38" spans="1:35" ht="24" thickBot="1">
+      <c r="U37" s="15"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="7"/>
+    </row>
+    <row r="38" spans="1:32" ht="24" thickBot="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2437,23 +2493,17 @@
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="7"/>
-    </row>
-    <row r="39" spans="1:35" ht="24" thickBot="1">
+      <c r="U38" s="15"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="7"/>
+    </row>
+    <row r="39" spans="1:32" ht="24" thickBot="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2474,23 +2524,17 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="7"/>
-    </row>
-    <row r="40" spans="1:35" ht="24" thickBot="1">
+      <c r="U39" s="15"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="7"/>
+    </row>
+    <row r="40" spans="1:32" ht="24" thickBot="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2510,24 +2554,17 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="7"/>
-    </row>
-    <row r="41" spans="1:35" ht="24" thickBot="1">
+      <c r="U40" s="15"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="7"/>
+    </row>
+    <row r="41" spans="1:32" ht="24" thickBot="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2548,23 +2585,17 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="7"/>
-    </row>
-    <row r="42" spans="1:35" ht="24" thickBot="1">
+      <c r="U41" s="15"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="7"/>
+    </row>
+    <row r="42" spans="1:32" ht="24" thickBot="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2585,23 +2616,17 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="7"/>
-    </row>
-    <row r="43" spans="1:35" ht="24" thickBot="1">
+      <c r="U42" s="15"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="7"/>
+    </row>
+    <row r="43" spans="1:32" ht="24" thickBot="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2622,23 +2647,17 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="7"/>
-    </row>
-    <row r="44" spans="1:35" ht="24" thickBot="1">
+      <c r="U43" s="15"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="7"/>
+    </row>
+    <row r="44" spans="1:32" ht="24" thickBot="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2659,23 +2678,17 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="23"/>
-      <c r="AD44" s="23"/>
-      <c r="AE44" s="23"/>
-      <c r="AF44" s="23"/>
-      <c r="AG44" s="23"/>
-      <c r="AH44" s="24"/>
-      <c r="AI44" s="7"/>
-    </row>
-    <row r="45" spans="1:35" ht="24" thickBot="1">
+      <c r="U44" s="17"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="41"/>
+      <c r="AC44" s="7"/>
+    </row>
+    <row r="45" spans="1:32" ht="24" thickBot="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2705,14 +2718,8 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
-    </row>
-    <row r="46" spans="1:35" ht="24" thickBot="1">
+    </row>
+    <row r="46" spans="1:32" ht="24" thickBot="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2742,14 +2749,8 @@
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="7"/>
-    </row>
-    <row r="47" spans="1:35" ht="24" thickBot="1">
+    </row>
+    <row r="47" spans="1:32" ht="24" thickBot="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2779,15 +2780,50 @@
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="50">
+    <mergeCell ref="Y33:AD33"/>
+    <mergeCell ref="Y35:AD35"/>
+    <mergeCell ref="Y22:AD22"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="Y26:AD26"/>
+    <mergeCell ref="Y29:AD29"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="Y32:AD32"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H32:S32"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F34:G34"/>
@@ -2797,33 +2833,6 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="U4:AC4"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H32:S32"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="U5:AC5"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="U9:Z9"/>
-    <mergeCell ref="U8:AC8"/>
-    <mergeCell ref="U10:Z10"/>
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="U12:Z12"/>
-    <mergeCell ref="U13:Z13"/>
-    <mergeCell ref="U14:Z14"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="U26:AB26"/>
-    <mergeCell ref="U27:AB27"/>
-    <mergeCell ref="U29:AB29"/>
-    <mergeCell ref="U30:AB30"/>
-    <mergeCell ref="U32:AB32"/>
-    <mergeCell ref="U33:AB33"/>
-    <mergeCell ref="U35:AB35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
